--- a/Data_Learning_Prediction/For_Paper_Feature Selection CHN/FeatureSelection_CHN_GBR_841840_same-all.xlsx
+++ b/Data_Learning_Prediction/For_Paper_Feature Selection CHN/FeatureSelection_CHN_GBR_841840_same-all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Learning_Prediction\For_Paper_Feature Selection CHN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,13 +20,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="86">
   <si>
     <t>month</t>
   </si>
@@ -554,6 +554,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -613,6 +616,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6917,32 +6921,32 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:J8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:J23" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="24">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item h="1" x="20"/>
         <item h="1" x="19"/>
         <item h="1" x="21"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item h="1" x="18"/>
         <item h="1" x="22"/>
         <item t="default"/>
@@ -7240,7 +7244,25 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
@@ -7249,6 +7271,33 @@
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
   </rowItems>
   <colFields count="2">
@@ -7291,7 +7340,7 @@
     <dataField name="Average of value" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat type="all" priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="4">
@@ -7336,7 +7385,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat type="all" priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="4">
@@ -28006,10 +28055,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J8"/>
+  <dimension ref="A3:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L6" sqref="L6:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28018,24 +28067,20 @@
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="3" customWidth="1"/>
-    <col min="21" max="21" width="4" customWidth="1"/>
-    <col min="22" max="22" width="5" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" customWidth="1"/>
-    <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="25" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="23" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="4.88671875" customWidth="1"/>
+    <col min="26" max="26" width="7" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -28043,7 +28088,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>82</v>
       </c>
@@ -28054,7 +28099,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -28086,104 +28131,1088 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.55060000000000009</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.54920000000000013</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.5361999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.52000000000000013</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.5292</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.52000000000000013</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.55060000000000009</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.54920000000000013</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.5361999999999999</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0.5292</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.52260000000000006</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.49220000000000008</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.52299999999999991</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.50639999999999996</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.49220000000000008</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.52260000000000006</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.52299999999999991</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.50639999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.53199999999999992</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.51460000000000006</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.51460000000000006</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.5172000000000001</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5">
+        <v>0.51460000000000006</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.49320000000000003</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.53199999999999992</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0.51460000000000006</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.5172000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.379</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.37459999999999993</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.41479999999999995</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.35760000000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.33940000000000003</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.3614</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5">
+        <v>0.41479999999999995</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.35760000000000003</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.33940000000000003</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.379</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.37459999999999993</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.3614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.44939999999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.433</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.43220000000000003</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.39859999999999995</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.37940000000000007</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.44160000000000005</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5">
+        <v>0.43220000000000003</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.39859999999999995</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.37940000000000007</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.44939999999999997</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.433</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0.44160000000000005</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.40960000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.50340000000000007</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.4556</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.42880000000000001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.46679999999999994</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.45940000000000003</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.44980000000000003</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5">
+        <v>0.4556</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.42880000000000001</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.50340000000000007</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.46679999999999994</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0.45940000000000003</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0.44980000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B12" s="4">
         <v>0.45960000000000001</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.47879999999999995</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.46879999999999999</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C12" s="4">
+        <v>0.4788</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.46880000000000005</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.44699999999999995</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F12" s="4">
         <v>0.42899999999999999</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G12" s="4">
         <v>0.42279999999999995</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H12" s="4">
         <v>0.44800000000000006</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I12" s="4">
         <v>0.45680000000000004</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J12" s="4">
         <v>0.44160000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="5">
+        <v>0.44699999999999995</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.42279999999999995</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.4788</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.46880000000000005</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.44800000000000006</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0.45680000000000004</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0.44160000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B13" s="4">
         <v>0.53260000000000007</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.51999999999999991</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.51079999999999992</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C13" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.47759999999999997</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F13" s="4">
         <v>0.47159999999999991</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G13" s="4">
         <v>0.4708</v>
       </c>
-      <c r="H7" s="4">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H13" s="4">
+        <v>0.51899999999999991</v>
+      </c>
+      <c r="I13" s="4">
         <v>0.50679999999999992</v>
       </c>
-      <c r="J7" s="4">
-        <v>0.48220000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="J13" s="4">
+        <v>0.48219999999999991</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5">
+        <v>0.47759999999999997</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.47159999999999991</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.4708</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.53260000000000007</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.51899999999999991</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.50679999999999992</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0.48219999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B14" s="4">
         <v>0.55059999999999998</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C14" s="4">
         <v>0.52740000000000009</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D14" s="4">
         <v>0.49980000000000002</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E14" s="4">
         <v>0.505</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F14" s="4">
         <v>0.48119999999999996</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G14" s="4">
         <v>0.46239999999999998</v>
       </c>
-      <c r="H8" s="4">
-        <v>0.5334000000000001</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H14" s="4">
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.49919999999999998</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J14" s="4">
         <v>0.48399999999999999</v>
       </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.48119999999999996</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.52740000000000009</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.51479999999999992</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.51660000000000006</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5">
+        <v>0.51660000000000006</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.51479999999999992</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.48580000000000007</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.4854</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.5119999999999999</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.50140000000000007</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.48580000000000007</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.4854</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.5119999999999999</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.50140000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.4824</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.44060000000000005</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.4224</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.42379999999999995</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.41459999999999997</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.42700000000000005</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5">
+        <v>0.46539999999999998</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.42379999999999995</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.41459999999999997</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.4824</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.44060000000000005</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.4224</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.42700000000000005</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.52840000000000009</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.48820000000000008</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.5272</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.4768</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.47620000000000007</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5">
+        <v>0.5272</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.4768</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.52840000000000009</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.48820000000000008</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0.47620000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.4224</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.38980000000000004</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.38960000000000006</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.376</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.38680000000000003</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.38040000000000002</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.38960000000000006</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.376</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.4224</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.38980000000000004</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.38680000000000003</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0.38040000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.3634</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.36619999999999997</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.35459999999999997</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5">
+        <v>0.36619999999999997</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.3634</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0.35459999999999997</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0.32740000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.3382</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.35679999999999995</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.33879999999999993</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.312</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.33320000000000005</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.32839999999999997</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5">
+        <v>0.35679999999999995</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.33879999999999993</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.312</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.3382</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0.33320000000000005</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0.32839999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.33320000000000005</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.2984</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.28880000000000006</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5">
+        <v>0.33320000000000005</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.2984</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.28880000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.36740000000000006</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.37420000000000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.33340000000000003</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5">
+        <v>0.37420000000000003</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.33340000000000003</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.36740000000000006</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0.33960000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B6:J8">
+  <conditionalFormatting pivot="1" sqref="B6:J23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -28195,7 +29224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B6:J8">
+  <conditionalFormatting pivot="1" sqref="B6:J23">
     <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
